--- a/results/study2/bolsas_por_componente.xlsx
+++ b/results/study2/bolsas_por_componente.xlsx
@@ -614,7 +614,7 @@
         <v>0.07906824146981627</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05269683818970862</v>
+        <v>0.05181347150259067</v>
       </c>
       <c r="S2" t="n">
         <v>0.0576923076923077</v>
@@ -632,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -697,7 +697,7 @@
         <v>0.04265091863517061</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0309981401115933</v>
+        <v>0.03047851264858275</v>
       </c>
       <c r="S3" t="n">
         <v>0.03846153846153846</v>
@@ -780,7 +780,7 @@
         <v>0.05169666291713536</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02014879107253565</v>
+        <v>0.01981103322157879</v>
       </c>
       <c r="S4" t="n">
         <v>0.03846153846153846</v>
@@ -863,7 +863,7 @@
         <v>0.04869703787026622</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02479851208927464</v>
+        <v>0.0243828101188662</v>
       </c>
       <c r="S5" t="n">
         <v>0.01923076923076923</v>
@@ -881,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -946,7 +946,7 @@
         <v>0.07452193475815523</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04959702417854929</v>
+        <v>0.0487656202377324</v>
       </c>
       <c r="S6" t="n">
         <v>0.03846153846153846</v>
@@ -964,45 +964,45 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECT3103</t>
+          <t>ECT3104</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>METODOLOGIA CIENTÍFICA, TECNOLÓGICA E EMPREENDEDORA</t>
+          <t>LÓGICA DE PROGRAMAÇÃO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Negócios</t>
+          <t>Computação</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1120</v>
+        <v>1246</v>
       </c>
       <c r="F7" t="n">
         <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H7" t="n">
         <v>360</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1011,78 +1011,78 @@
         <v>14</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M7" t="n">
-        <v>360</v>
+        <v>1800</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.05249343832020997</v>
+        <v>0.0583989501312336</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01859888406695598</v>
+        <v>0.09143553794574824</v>
       </c>
       <c r="S7" t="n">
         <v>0.01923076923076923</v>
       </c>
       <c r="T7" t="n">
-        <v>0.07216494845360824</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="U7" t="n">
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0.06369667181954734</v>
+        <v>0.03100236448717031</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECT3308</t>
+          <t>ECT3103</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CIÊNCIA, TECNOLOGIA E SOCIEDADE II</t>
+          <t>METODOLOGIA CIENTÍFICA, TECNOLÓGICA E EMPREENDEDORA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CTS</t>
+          <t>Negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>793</v>
+        <v>1120</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1097,126 +1097,126 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03716722909636296</v>
+        <v>0.05249343832020997</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01704897706137632</v>
+        <v>0.01828710758914965</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="T8" t="n">
-        <v>0.05154639175257732</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="U8" t="n">
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0.05678568307912618</v>
+        <v>0.06369667181954734</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECT3206</t>
+          <t>ECT3201</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>QUÍMICA GERAL</t>
+          <t>LINGUAGEM DE PROGRAMAÇÃO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Química</t>
+          <t>Computação</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>376</v>
+        <v>972</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H9" t="n">
-        <v>780</v>
+        <v>300</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M9" t="n">
-        <v>780</v>
+        <v>1200</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01762279715035621</v>
+        <v>0.04555680539932509</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04029758214507129</v>
+        <v>0.0609570252971655</v>
       </c>
       <c r="S9" t="n">
         <v>0.03846153846153846</v>
       </c>
       <c r="T9" t="n">
-        <v>0.06185567010309279</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>0.05323779848917733</v>
+        <v>0.02053428969182636</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1278,7 +1278,7 @@
         <v>0.03519872515935508</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01549907005579665</v>
+        <v>0.01523925632429137</v>
       </c>
       <c r="S10" t="n">
         <v>0.01923076923076923</v>
@@ -1304,117 +1304,117 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECT3206</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>QUÍMICA GERAL</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Química</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>376</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>780</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>13</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>780</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.01762279715035621</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.03962206644315757</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.06185567010309279</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.05323779848917733</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>3</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ECT3107</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>INTRODUÇÃO ÀS CIÊNCIAS E TECNOLOGIA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Tecnologia</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1191</v>
-      </c>
-      <c r="F11" t="n">
-        <v>14</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>420</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>14</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>420</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>14</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.05582114735658043</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.02169869807811531</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.01923076923076923</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.1443298969072165</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.03951184173806296</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>2</v>
-      </c>
       <c r="Y11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECT3305</t>
+          <t>ECT3308</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PRÁTICAS DE LEITURA EM INGLÊS</t>
+          <t>CIÊNCIA, TECNOLOGIA E SOCIEDADE II</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PLE</t>
+          <t>CTS</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>666</v>
+        <v>793</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1429,78 +1429,78 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.031214848143982</v>
+        <v>0.03716722909636296</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01549907005579665</v>
+        <v>0.01676318195672051</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.06185567010309279</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="U12" t="n">
         <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>0.03612983389764418</v>
+        <v>0.05678568307912618</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECT3104</t>
+          <t>ECT3305</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LÓGICA DE PROGRAMAÇÃO</t>
+          <t>PRÁTICAS DE LEITURA EM INGLÊS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Computação</t>
+          <t>PLE</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1246</v>
+        <v>666</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="I13" t="n">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1509,78 +1509,78 @@
         <v>14</v>
       </c>
       <c r="L13" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0583989501312336</v>
+        <v>0.031214848143982</v>
       </c>
       <c r="R13" t="n">
-        <v>0.09299442033477991</v>
+        <v>0.01523925632429137</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01923076923076923</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1649484536082474</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="U13" t="n">
         <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>0.03100236448717031</v>
+        <v>0.03612983389764418</v>
       </c>
       <c r="W13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Y13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECT3303</t>
+          <t>ECT3107</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GESTÃO E ECONOMIA DA CIÊNCIA, TECNOLOGIA E INOVAÇÃO</t>
+          <t>INTRODUÇÃO ÀS CIÊNCIAS E TECNOLOGIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Negócios</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>319</v>
+        <v>1191</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1595,244 +1595,244 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01495125609298838</v>
+        <v>0.05582114735658043</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02479851208927464</v>
+        <v>0.02133495885400792</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="T14" t="n">
-        <v>0.07216494845360824</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="U14" t="n">
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>0.02784082517826982</v>
+        <v>0.03951184173806296</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECT3307</t>
+          <t>ECT3204</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>INTRODUÇÃO À MECÂNICA PARA ENGENHARIAS: ESTÁTICA</t>
+          <t>MODELAGEM DO MUNDO FÍSICO I</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Física</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>921</v>
+        <v>788</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H15" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>1080</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.04316647919010123</v>
+        <v>0.0369328833895763</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01549907005579665</v>
+        <v>0.05486132276744895</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1443298969072165</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="U15" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02109715287237462</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECT3207</t>
+          <t>ECT3301</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL E INTEGRAL I</t>
+          <t>QUÍMICA GERAL EXPERIMENTAL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Matemática</t>
+          <t>Química</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>472</v>
+        <v>124</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H16" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M16" t="n">
-        <v>720</v>
+        <v>660</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02212223472065992</v>
+        <v>0.005811773528308962</v>
       </c>
       <c r="R16" t="n">
-        <v>0.03719776813391196</v>
+        <v>0.03352636391344102</v>
       </c>
       <c r="S16" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1958762886597938</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="V16" t="n">
-        <v>0.02089908676184552</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECT3201</t>
+          <t>ECT3207</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LINGUAGEM DE PROGRAMAÇÃO</t>
+          <t>CÁLCULO DIFERENCIAL E INTEGRAL I</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Computação</t>
+          <t>Matemática</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>972</v>
+        <v>472</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>300</v>
+        <v>720</v>
       </c>
       <c r="I17" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1841,43 +1841,43 @@
         <v>14</v>
       </c>
       <c r="L17" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>19</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.02212223472065992</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0365742151782993</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.1958762886597938</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.02089908676184552</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>16</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.04555680539932509</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.06199628022318661</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.03846153846153846</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.1649484536082474</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.02053428969182636</v>
-      </c>
-      <c r="W17" t="n">
-        <v>3</v>
-      </c>
-      <c r="X17" t="n">
-        <v>5</v>
       </c>
       <c r="Y17" t="n">
         <v>2</v>
@@ -1942,7 +1942,7 @@
         <v>0.03037120359955005</v>
       </c>
       <c r="R18" t="n">
-        <v>0.02789832610043397</v>
+        <v>0.02743066138372447</v>
       </c>
       <c r="S18" t="n">
         <v>0.01923076923076923</v>
@@ -1968,25 +1968,25 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECT3306</t>
+          <t>ECT3307</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DA MECÂNICA</t>
+          <t>INTRODUÇÃO À MECÂNICA PARA ENGENHARIAS: ESTÁTICA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Física</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>338</v>
+        <v>921</v>
       </c>
       <c r="F19" t="n">
         <v>10</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2004,40 +2004,40 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
+        <v>13</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>300</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
         <v>14</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>600</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>12</v>
-      </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01584176977877765</v>
+        <v>0.04316647919010123</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0309981401115933</v>
+        <v>0.01523925632429137</v>
       </c>
       <c r="S19" t="n">
-        <v>0.09615384615384616</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1237113402061856</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02009925444305882</v>
+        <v>0.02109715287237462</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2051,25 +2051,25 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECT3304</t>
+          <t>ECT3303</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PROBABILIDADE E ESTATÍSTICA</t>
+          <t>GESTÃO E ECONOMIA DA CIÊNCIA, TECNOLOGIA E INOVAÇÃO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Matemática</t>
+          <t>Negócios</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>578</v>
+        <v>319</v>
       </c>
       <c r="F20" t="n">
         <v>8</v>
@@ -2096,31 +2096,31 @@
         <v>480</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02709036370453693</v>
+        <v>0.01495125609298838</v>
       </c>
       <c r="R20" t="n">
-        <v>0.02479851208927464</v>
+        <v>0.0243828101188662</v>
       </c>
       <c r="S20" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1958762886597938</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="U20" t="n">
         <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>0.01614766504899052</v>
+        <v>0.02784082517826982</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECT3302</t>
+          <t>ECT3304</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL E INTEGRAL II</t>
+          <t>PROBABILIDADE E ESTATÍSTICA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>527</v>
+        <v>578</v>
       </c>
       <c r="F21" t="n">
         <v>8</v>
@@ -2179,7 +2179,7 @@
         <v>480</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>19</v>
@@ -2188,13 +2188,13 @@
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.02470003749531309</v>
+        <v>0.02709036370453693</v>
       </c>
       <c r="R21" t="n">
-        <v>0.02479851208927464</v>
+        <v>0.0243828101188662</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="T21" t="n">
         <v>0.1958762886597938</v>
@@ -2203,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>0.01527845111461089</v>
+        <v>0.01614766504899052</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2217,182 +2217,182 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECT3401</t>
+          <t>ECT3306</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COMPUTAÇÃO NUMÉRICA</t>
+          <t>FUNDAMENTOS DA MECÂNICA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Computação</t>
+          <t>Física</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>239</v>
+        <v>338</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="I22" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O22" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01120172478440195</v>
+        <v>0.01584176977877765</v>
       </c>
       <c r="R22" t="n">
-        <v>0.02634841909485431</v>
+        <v>0.03047851264858275</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1649484536082474</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="U22" t="n">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>0.004473101282327705</v>
+        <v>0.02009925444305882</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECT3414</t>
+          <t>ECT3302</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EXPRESSÃO GRÁFICA</t>
+          <t>CÁLCULO DIFERENCIAL E INTEGRAL II</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Matemática</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>346</v>
+        <v>527</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>204</v>
+        <v>480</v>
       </c>
       <c r="I23" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0162167229096363</v>
+        <v>0.02470003749531309</v>
       </c>
       <c r="R23" t="n">
-        <v>0.02293862368257904</v>
+        <v>0.0243828101188662</v>
       </c>
       <c r="S23" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1443298969072165</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="U23" t="n">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>0.004274438464176231</v>
+        <v>0.01527845111461089</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECT3622</t>
+          <t>ECT3403</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DO ELETROMAGNETISMO</t>
+          <t>MODELAGEM DO MUNDO FÍSICO II</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2401,34 +2401,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>256</v>
+        <v>547</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H24" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M24" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>12</v>
@@ -2437,45 +2437,45 @@
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01199850018747657</v>
+        <v>0.02563742032245969</v>
       </c>
       <c r="R24" t="n">
-        <v>0.01239925604463732</v>
+        <v>0.03047851264858275</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="T24" t="n">
         <v>0.1237113402061856</v>
       </c>
       <c r="U24" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>0.003963348468771835</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECT3511</t>
+          <t>ECT3411</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE CIRCUITOS E SISTEMAS CONTROLADOS</t>
+          <t>CIÊNCIA E TECNOLOGIA DOS MATERIAIS</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2484,19 +2484,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>283</v>
+        <v>188</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H25" t="n">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="I25" t="n">
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2505,10 +2505,10 @@
         <v>6</v>
       </c>
       <c r="L25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M25" t="n">
-        <v>406</v>
+        <v>524</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01326396700412449</v>
+        <v>0.008811398575178103</v>
       </c>
       <c r="R25" t="n">
-        <v>0.02097540814217813</v>
+        <v>0.02661790104642893</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0.4</v>
       </c>
       <c r="V25" t="n">
-        <v>0.003531067399996487</v>
+        <v>0.002692486360372187</v>
       </c>
       <c r="W25" t="n">
         <v>1</v>
@@ -2549,76 +2549,76 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECT3411</t>
+          <t>ECT3401</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CIÊNCIA E TECNOLOGIA DOS MATERIAIS</t>
+          <t>COMPUTAÇÃO NUMÉRICA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Computação</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
-        <v>264</v>
+        <v>360</v>
       </c>
       <c r="I26" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M26" t="n">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.008811398575178103</v>
+        <v>0.01120172478440195</v>
       </c>
       <c r="R26" t="n">
-        <v>0.02707170903079149</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.1443298969072165</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V26" t="n">
-        <v>0.002692486360372187</v>
+        <v>0.004473101282327705</v>
       </c>
       <c r="W26" t="n">
         <v>1</v>
@@ -2632,16 +2632,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECT3413</t>
+          <t>ECT3414</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MECÂNICA DOS FLUÍDOS</t>
+          <t>EXPRESSÃO GRÁFICA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2650,34 +2650,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>162</v>
+        <v>346</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H27" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M27" t="n">
-        <v>216</v>
+        <v>444</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
         <v>14</v>
@@ -2686,28 +2686,28 @@
         <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.007592800899887514</v>
+        <v>0.0162167229096363</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01115933044017359</v>
+        <v>0.02255409935995123</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="T27" t="n">
         <v>0.1443298969072165</v>
       </c>
       <c r="U27" t="n">
-        <v>0.4</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V27" t="n">
-        <v>0.001898281002622171</v>
+        <v>0.004274438464176231</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2715,82 +2715,82 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECT3621</t>
+          <t>ECT3511</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DA TERMODINÂMICA</t>
+          <t>FUNDAMENTOS DE CIRCUITOS E SISTEMAS CONTROLADOS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Física</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>121</v>
+        <v>283</v>
       </c>
       <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>22</v>
+      </c>
+      <c r="H28" t="n">
+        <v>230</v>
+      </c>
+      <c r="I28" t="n">
+        <v>176</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>6</v>
       </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>180</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>180</v>
+        <v>406</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.005671166104236971</v>
+        <v>0.01326396700412449</v>
       </c>
       <c r="R28" t="n">
-        <v>0.009299442033477991</v>
+        <v>0.02062379355887433</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1237113402061856</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="U28" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="V28" t="n">
-        <v>0.001247184506466727</v>
+        <v>0.003531067399996487</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0.005671166104236971</v>
       </c>
       <c r="R29" t="n">
-        <v>0.009299442033477991</v>
+        <v>0.009143553794574825</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0.004733783277090364</v>
       </c>
       <c r="R30" t="n">
-        <v>0.006199628022318661</v>
+        <v>0.00609570252971655</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0.003796400449943757</v>
       </c>
       <c r="R31" t="n">
-        <v>0.006199628022318661</v>
+        <v>0.00609570252971655</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>0.004171353580802399</v>
       </c>
       <c r="R32" t="n">
-        <v>0.006199628022318661</v>
+        <v>0.00609570252971655</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0.003515185601799775</v>
       </c>
       <c r="R33" t="n">
-        <v>0.01115933044017359</v>
+        <v>0.01097226455348979</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3213,34 +3213,34 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECT3402</t>
+          <t>ECT3622</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL E INTEGRAL III</t>
+          <t>FUNDAMENTOS DO ELETROMAGNETISMO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Matemática</t>
+          <t>Física</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>62</v>
+        <v>256</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3255,34 +3255,34 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.002905886764154481</v>
+        <v>0.01199850018747657</v>
       </c>
       <c r="R34" t="n">
-        <v>0.01549907005579665</v>
+        <v>0.0121914050594331</v>
       </c>
       <c r="S34" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1958762886597938</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="U34" t="n">
         <v>0.4</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0007720928504442403</v>
+        <v>0.003963348468771835</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3296,25 +3296,25 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECT3611</t>
+          <t>ECT3413</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EQUAÇÕES DIFERENCIAIS E TRANSFORMADAS</t>
+          <t>MECÂNICA DOS FLUÍDOS</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Matemática</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="F35" t="n">
         <v>4</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3332,40 +3332,40 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.002062242219722535</v>
+        <v>0.007592800899887514</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01859888406695598</v>
+        <v>0.01097226455348979</v>
       </c>
       <c r="S35" t="n">
-        <v>0.01923076923076923</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1958762886597938</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="V35" t="n">
-        <v>0.00052242445746734</v>
+        <v>0.001898281002622171</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3379,34 +3379,34 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECT3640</t>
+          <t>ECT3621</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RELATIVIDADE</t>
+          <t>FUNDAMENTOS DA TERMODINÂMICA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Aeroespacial</t>
+          <t>Física</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3415,40 +3415,40 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.00135920509936258</v>
+        <v>0.005671166104236971</v>
       </c>
       <c r="R36" t="n">
-        <v>0.006199628022318661</v>
+        <v>0.009143553794574825</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0.06185567010309279</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="V36" t="n">
-        <v>0.0003356204790491873</v>
+        <v>0.001247184506466727</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3462,34 +3462,34 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECT3683</t>
+          <t>ECT3640</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MARCOS REGULATÓRIOS BÁSICOS DO MEIO AMBIENTE</t>
+          <t>RELATIVIDADE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Meio Ambiente</t>
+          <t>Aeroespacial</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3516,10 +3516,10 @@
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.002296587926509186</v>
+        <v>0.00135920509936258</v>
       </c>
       <c r="R37" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.00609570252971655</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0002835414391967272</v>
+        <v>0.0003356204790491873</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3545,76 +3545,76 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECT3517</t>
+          <t>ECT3611</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CIÊNCIAS E TECNOLOGIAS APLICADAS 3</t>
+          <t>EQUAÇÕES DIFERENCIAIS E TRANSFORMADAS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Matemática</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>360</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>2</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>60</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.005249343832020997</v>
+        <v>0.002062242219722535</v>
       </c>
       <c r="R38" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.01828710758914965</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="T38" t="n">
-        <v>0.1443298969072165</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0002777548792131206</v>
+        <v>0.00052242445746734</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3628,34 +3628,34 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECT1562</t>
+          <t>ECT3402</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>POLÍTICA, PLANEJAMENTO E GESTÃO DO MEIO AMBIENTE</t>
+          <t>CÁLCULO DIFERENCIAL E INTEGRAL III</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Meio Ambiente</t>
+          <t>Matemática</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,40 +3664,40 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O39" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.002109111361079865</v>
+        <v>0.002905886764154481</v>
       </c>
       <c r="R39" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.01523925632429137</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="T39" t="n">
-        <v>0.06185567010309279</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="V39" t="n">
-        <v>0.0002603951992623005</v>
+        <v>0.0007720928504442403</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3711,28 +3711,28 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECT3516</t>
+          <t>ECT3683</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CIÊNCIAS E TECNOLOGIAS APLICADAS 2</t>
+          <t>MARCOS REGULATÓRIOS BÁSICOS DO MEIO AMBIENTE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3759,28 +3759,28 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.003187101612298463</v>
+        <v>0.002296587926509186</v>
       </c>
       <c r="R40" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.1443298969072165</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="U40" t="n">
         <v>0.06666666666666667</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0001686368909508232</v>
+        <v>0.0002835414391967272</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3851,7 +3851,7 @@
         <v>0.002343457067866517</v>
       </c>
       <c r="R41" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3877,28 +3877,28 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECT3642</t>
+          <t>ECT3517</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>INTRODUÇÃO À FÍSICA QUÂNTICA</t>
+          <t>CIÊNCIAS E TECNOLOGIAS APLICADAS 3</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Aeroespacial</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3925,28 +3925,28 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.0005624296962879641</v>
+        <v>0.005249343832020997</v>
       </c>
       <c r="R42" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0.06185567010309279</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="U42" t="n">
         <v>0.06666666666666667</v>
       </c>
       <c r="V42" t="n">
-        <v>6.943871980328014e-05</v>
+        <v>0.0002777548792131206</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3960,28 +3960,28 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECT3522</t>
+          <t>ECT1562</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CIÊNCIAS E TECNOLOGIAS APLICADAS 8</t>
+          <t>POLÍTICA, PLANEJAMENTO E GESTÃO DO MEIO AMBIENTE</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Meio Ambiente</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4008,28 +4008,28 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.001124859392575928</v>
+        <v>0.002109111361079865</v>
       </c>
       <c r="R43" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1443298969072165</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="U43" t="n">
         <v>0.06666666666666667</v>
       </c>
       <c r="V43" t="n">
-        <v>5.951890268852584e-05</v>
+        <v>0.0002603951992623005</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4043,16 +4043,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECT3515</t>
+          <t>ECT3516</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CIÊNCIAS E TECNOLOGIAS APLICADAS 1</t>
+          <t>CIÊNCIAS E TECNOLOGIAS APLICADAS 2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4097,10 +4097,10 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.001077990251218598</v>
+        <v>0.003187101612298463</v>
       </c>
       <c r="R44" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0.1443298969072165</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="V44" t="n">
-        <v>5.347401413422242e-05</v>
+        <v>0.0001686368909508232</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4126,16 +4126,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECT3520</t>
+          <t>ECT3515</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CIÊNCIAS E TECNOLOGIAS APLICADAS 6</t>
+          <t>CIÊNCIAS E TECNOLOGIAS APLICADAS 1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4144,7 +4144,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F45" t="n">
         <v>2</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0009373828271466067</v>
+        <v>0.001077990251218598</v>
       </c>
       <c r="R45" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4192,10 +4192,10 @@
         <v>0.1443298969072165</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>4.959908557377153e-05</v>
+        <v>5.347401413422242e-05</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4209,16 +4209,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECT3518</t>
+          <t>ECT3522</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CIÊNCIAS E TECNOLOGIAS APLICADAS 4</t>
+          <t>CIÊNCIAS E TECNOLOGIAS APLICADAS 8</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F46" t="n">
         <v>2</v>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4263,10 +4263,10 @@
         <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.0007499062617172854</v>
+        <v>0.001124859392575928</v>
       </c>
       <c r="R46" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4275,10 +4275,10 @@
         <v>0.1443298969072165</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="V46" t="n">
-        <v>4.21592227377058e-05</v>
+        <v>5.951890268852584e-05</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4292,16 +4292,16 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECT3641</t>
+          <t>ECT3642</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MÉTODOS ESTATÍSTICOS EM CIÊNCIAS</t>
+          <t>INTRODUÇÃO À FÍSICA QUÂNTICA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -4346,10 +4346,10 @@
         <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.000140607424071991</v>
+        <v>0.0005624296962879641</v>
       </c>
       <c r="R47" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V47" t="n">
-        <v>1.735967995082003e-05</v>
+        <v>6.943871980328014e-05</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4375,16 +4375,16 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECT3521</t>
+          <t>ECT3520</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CIÊNCIAS E TECNOLOGIAS APLICADAS 7</t>
+          <t>CIÊNCIAS E TECNOLOGIAS APLICADAS 6</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4393,7 +4393,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F48" t="n">
         <v>2</v>
@@ -4429,10 +4429,10 @@
         <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.0002343457067866517</v>
+        <v>0.0009373828271466067</v>
       </c>
       <c r="R48" t="n">
-        <v>0.003099814011159331</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -4444,7 +4444,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V48" t="n">
-        <v>1.239977139344288e-05</v>
+        <v>4.959908557377153e-05</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -4458,16 +4458,16 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECT3523</t>
+          <t>ECT3521</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CIÊNCIAS E TECNOLOGIAS APLICADAS 9</t>
+          <t>CIÊNCIAS E TECNOLOGIAS APLICADAS 7</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4494,13 +4494,13 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -4512,10 +4512,10 @@
         <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.000281214848143982</v>
+        <v>0.0002343457067866517</v>
       </c>
       <c r="R49" t="n">
-        <v>0.001549907005579665</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -4524,10 +4524,10 @@
         <v>0.1443298969072165</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="V49" t="n">
-        <v>6.974871408811621e-06</v>
+        <v>1.239977139344288e-05</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
@@ -4541,251 +4541,251 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECT3204</t>
+          <t>ECT3641</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MODELAGEM DO MUNDO FÍSICO I</t>
+          <t>MÉTODOS ESTATÍSTICOS EM CIÊNCIAS</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Física</t>
+          <t>Aeroespacial</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>788</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I50" t="n">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>1080</v>
+        <v>60</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0369328833895763</v>
+        <v>0.000140607424071991</v>
       </c>
       <c r="R50" t="n">
-        <v>0.05579665220086795</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S50" t="n">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0.1237113402061856</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1.735967995082003e-05</v>
       </c>
       <c r="W50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ECT3518</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CIÊNCIAS E TECNOLOGIAS APLICADAS 4</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Tecnologia</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
         <v>16</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ECT3403</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>MODELAGEM DO MUNDO FÍSICO II</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Física</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>547</v>
-      </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I51" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
+        <v>2</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>60</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
         <v>14</v>
       </c>
-      <c r="L51" t="n">
-        <v>30</v>
-      </c>
-      <c r="M51" t="n">
-        <v>600</v>
-      </c>
-      <c r="N51" t="n">
-        <v>9</v>
-      </c>
-      <c r="O51" t="n">
-        <v>12</v>
-      </c>
       <c r="P51" t="n">
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.02563742032245969</v>
+        <v>0.0007499062617172854</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0309981401115933</v>
+        <v>0.003047851264858275</v>
       </c>
       <c r="S51" t="n">
-        <v>0.1730769230769231</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0.1237113402061856</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>4.21592227377058e-05</v>
       </c>
       <c r="W51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECT3301</t>
+          <t>ECT3523</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>QUÍMICA GERAL EXPERIMENTAL</t>
+          <t>CIÊNCIAS E TECNOLOGIAS APLICADAS 9</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Química</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I52" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
         <v>30</v>
       </c>
-      <c r="M52" t="n">
-        <v>330</v>
-      </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.005811773528308962</v>
+        <v>0.000281214848143982</v>
       </c>
       <c r="R52" t="n">
-        <v>0.01704897706137632</v>
+        <v>0.001523925632429137</v>
       </c>
       <c r="S52" t="n">
-        <v>0.01923076923076923</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>0.06185567010309279</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="U52" t="n">
-        <v>0.9333333333333333</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>6.974871408811621e-06</v>
       </c>
       <c r="W52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/study2/bolsas_por_componente.xlsx
+++ b/results/study2/bolsas_por_componente.xlsx
@@ -476,24 +476,24 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>ch_pratica_base</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ch_total</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>obrigatorio_generalista</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>obrigatorio_enfase</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>ch_pratica_base</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>ch_total</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>pre_requisito</t>
@@ -546,12 +546,12 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>bolsas_teorica</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>bolsas_total</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>bolsas_teorica</t>
         </is>
       </c>
     </row>
@@ -590,16 +590,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
         <v>14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1020</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
@@ -673,16 +673,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>600</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
         <v>14</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>600</v>
       </c>
       <c r="N3" t="n">
         <v>2</v>
@@ -756,16 +756,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>390</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
         <v>14</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>390</v>
       </c>
       <c r="N4" t="n">
         <v>2</v>
@@ -839,16 +839,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>480</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
         <v>14</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>480</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -922,16 +922,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>960</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
         <v>14</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>960</v>
       </c>
       <c r="N6" t="n">
         <v>2</v>
@@ -1005,16 +1005,16 @@
         <v>1440</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
         <v>14</v>
-      </c>
-      <c r="L7" t="n">
-        <v>30</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1800</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
@@ -1047,10 +1047,10 @@
         <v>3</v>
       </c>
       <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y7" t="n">
         <v>5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1088,16 +1088,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>360</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
         <v>14</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>360</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -1171,16 +1171,16 @@
         <v>900</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
         <v>14</v>
-      </c>
-      <c r="L9" t="n">
-        <v>30</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1200</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
@@ -1213,10 +1213,10 @@
         <v>2</v>
       </c>
       <c r="X9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y9" t="n">
         <v>4</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1254,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>300</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
         <v>14</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>300</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -1337,16 +1337,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>780</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
         <v>13</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>780</v>
       </c>
       <c r="N11" t="n">
         <v>2</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>330</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
         <v>14</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>330</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1503,16 +1503,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>300</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
         <v>14</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>300</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1586,16 +1586,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>420</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
         <v>14</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>420</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
@@ -1669,16 +1669,16 @@
         <v>1080</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
+        <v>1080</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
         <v>14</v>
-      </c>
-      <c r="L15" t="n">
-        <v>30</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1080</v>
       </c>
       <c r="N15" t="n">
         <v>2</v>
@@ -1711,10 +1711,10 @@
         <v>2</v>
       </c>
       <c r="X15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="n">
         <v>3</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1752,16 +1752,16 @@
         <v>660</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
+        <v>660</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
         <v>13</v>
-      </c>
-      <c r="L16" t="n">
-        <v>30</v>
-      </c>
-      <c r="M16" t="n">
-        <v>660</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
@@ -1794,10 +1794,10 @@
         <v>2</v>
       </c>
       <c r="X16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="n">
         <v>3</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1835,16 +1835,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>720</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
         <v>14</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>720</v>
       </c>
       <c r="N17" t="n">
         <v>4</v>
@@ -1918,16 +1918,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>540</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
         <v>14</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>540</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
@@ -2001,16 +2001,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>300</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
         <v>13</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>300</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -2084,16 +2084,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>480</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
         <v>14</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>480</v>
       </c>
       <c r="N20" t="n">
         <v>9</v>
@@ -2167,16 +2167,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>480</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
         <v>14</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>480</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
+        <v>600</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
         <v>14</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>600</v>
       </c>
       <c r="N22" t="n">
         <v>5</v>
@@ -2333,16 +2333,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>480</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
         <v>14</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>480</v>
       </c>
       <c r="N23" t="n">
         <v>3</v>
@@ -2416,16 +2416,16 @@
         <v>600</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K24" t="n">
+        <v>600</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
         <v>14</v>
-      </c>
-      <c r="L24" t="n">
-        <v>30</v>
-      </c>
-      <c r="M24" t="n">
-        <v>600</v>
       </c>
       <c r="N24" t="n">
         <v>9</v>
@@ -2458,10 +2458,10 @@
         <v>1</v>
       </c>
       <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="n">
         <v>2</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2499,16 +2499,16 @@
         <v>260</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K25" t="n">
+        <v>524</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>6</v>
-      </c>
-      <c r="L25" t="n">
-        <v>10</v>
-      </c>
-      <c r="M25" t="n">
-        <v>524</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2582,16 +2582,16 @@
         <v>150</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K26" t="n">
+        <v>510</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>8</v>
-      </c>
-      <c r="L26" t="n">
-        <v>15</v>
-      </c>
-      <c r="M26" t="n">
-        <v>510</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2624,10 +2624,10 @@
         <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2665,16 +2665,16 @@
         <v>240</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K27" t="n">
+        <v>444</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>8</v>
-      </c>
-      <c r="L27" t="n">
-        <v>20</v>
-      </c>
-      <c r="M27" t="n">
-        <v>444</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -2707,10 +2707,10 @@
         <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2748,16 +2748,16 @@
         <v>176</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K28" t="n">
+        <v>406</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
         <v>6</v>
-      </c>
-      <c r="L28" t="n">
-        <v>8</v>
-      </c>
-      <c r="M28" t="n">
-        <v>406</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>1</v>
       </c>
       <c r="X28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>180</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>3</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>180</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2917,13 +2917,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3083,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3166,13 +3166,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>216</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>6</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>216</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
+        <v>240</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>6</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>240</v>
       </c>
       <c r="N34" t="n">
         <v>1</v>
@@ -3332,13 +3332,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>216</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
         <v>6</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>216</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3415,13 +3415,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>180</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
         <v>4</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>180</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3498,13 +3498,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>360</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
         <v>2</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>360</v>
       </c>
       <c r="N38" t="n">
         <v>1</v>
@@ -3664,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>300</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
         <v>6</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>300</v>
       </c>
       <c r="N39" t="n">
         <v>2</v>
@@ -3747,13 +3747,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3913,13 +3913,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3996,13 +3996,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -4079,13 +4079,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -4162,13 +4162,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -4245,13 +4245,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -4328,13 +4328,13 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -4411,13 +4411,13 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -4494,13 +4494,13 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -4577,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -4660,13 +4660,13 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
+        <v>60</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
         <v>2</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>60</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -4743,13 +4743,13 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
